--- a/data_source/tourist_expend_stay_2020.xlsx
+++ b/data_source/tourist_expend_stay_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ผลปีงบ-66\Static\17 การท่องเที่ยว\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karuntarat\Documents\1st Year, 2nd Term\DADs5001\dads-5001-mini-project\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42A1A4B8-660D-41C0-8F26-0F6E0EF420AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC07549-E394-4E56-BB84-91079BAAE65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>    Switzerland</t>
   </si>
   <si>
-    <t>    United Kingdom</t>
-  </si>
-  <si>
     <t>    East Europe</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
       <t xml:space="preserve"> Office of the Permanent Secretary for Ministry of Tourism and Sports, Ministry of Tourism and Sports</t>
     </r>
   </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +323,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -331,7 +331,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -340,7 +340,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -349,7 +349,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -358,7 +358,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -367,7 +367,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -375,7 +375,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -383,7 +383,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -391,7 +391,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -399,7 +399,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -408,7 +408,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -417,7 +417,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -425,7 +425,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -434,7 +434,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -442,7 +442,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -451,7 +451,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -460,7 +460,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -468,7 +468,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -477,7 +477,7 @@
       <u/>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -485,7 +485,7 @@
       <u/>
       <sz val="8"/>
       <color rgb="FF800080"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -953,7 +953,7 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -961,6 +961,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -971,6 +983,12 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -979,24 +997,6 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1381,15 +1381,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N381"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197:B202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="14" width="12.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="12.77734375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1490,10 +1492,10 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1534,8 +1536,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1574,9 +1576,9 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1614,9 +1616,9 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1652,9 +1654,9 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1692,9 +1694,9 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1730,10 +1732,10 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1774,8 +1776,8 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1814,9 +1816,9 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1854,9 +1856,9 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1892,9 +1894,9 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1932,9 +1934,9 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1970,8 +1972,8 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2012,8 +2014,8 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
@@ -2052,9 +2054,9 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2092,9 +2094,9 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
@@ -2130,9 +2132,9 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2170,9 +2172,9 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
@@ -2208,8 +2210,8 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2250,8 +2252,8 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2290,9 +2292,9 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="26" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2330,9 +2332,9 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2368,9 +2370,9 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2408,9 +2410,9 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
@@ -2446,8 +2448,8 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2488,8 +2490,8 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2528,9 +2530,9 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="26" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2568,9 +2570,9 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
@@ -2606,9 +2608,9 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="26" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2646,9 +2648,9 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2684,8 +2686,8 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="17"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2726,8 +2728,8 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2766,9 +2768,9 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="26" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2806,9 +2808,9 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="5" t="s">
         <v>13</v>
       </c>
@@ -2844,9 +2846,9 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2884,9 +2886,9 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="5" t="s">
         <v>16</v>
       </c>
@@ -2922,8 +2924,8 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2964,8 +2966,8 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
@@ -3004,9 +3006,9 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="26" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -3044,9 +3046,9 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="5" t="s">
         <v>13</v>
       </c>
@@ -3082,9 +3084,9 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="26" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -3122,9 +3124,9 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="5" t="s">
         <v>16</v>
       </c>
@@ -3160,8 +3162,8 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="17"/>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3202,8 +3204,8 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
@@ -3242,9 +3244,9 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="26" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -3282,9 +3284,9 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="5" t="s">
         <v>13</v>
       </c>
@@ -3320,9 +3322,9 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="26" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3360,9 +3362,9 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="27"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="5" t="s">
         <v>16</v>
       </c>
@@ -3398,8 +3400,8 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="17"/>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3440,8 +3442,8 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="5" t="s">
         <v>9</v>
       </c>
@@ -3480,9 +3482,9 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="26" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -3520,9 +3522,9 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="27"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="5" t="s">
         <v>13</v>
       </c>
@@ -3558,9 +3560,9 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="26" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -3598,9 +3600,9 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="27"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="5" t="s">
         <v>16</v>
       </c>
@@ -3636,8 +3638,8 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="17"/>
-      <c r="B59" s="16" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3678,8 +3680,8 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="5" t="s">
         <v>9</v>
       </c>
@@ -3718,9 +3720,9 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="26" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -3758,9 +3760,9 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="5" t="s">
         <v>13</v>
       </c>
@@ -3796,9 +3798,9 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="26" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -3836,9 +3838,9 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="27"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="5" t="s">
         <v>16</v>
       </c>
@@ -3874,8 +3876,8 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="17"/>
-      <c r="B65" s="16" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3916,8 +3918,8 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="5" t="s">
         <v>9</v>
       </c>
@@ -3956,9 +3958,9 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="26" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -3996,9 +3998,9 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="27"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="5" t="s">
         <v>13</v>
       </c>
@@ -4034,9 +4036,9 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="26" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -4074,9 +4076,9 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="27"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="5" t="s">
         <v>16</v>
       </c>
@@ -4112,8 +4114,8 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="17"/>
-      <c r="B71" s="16" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -4154,8 +4156,8 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="5" t="s">
         <v>9</v>
       </c>
@@ -4194,9 +4196,9 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="26" t="s">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -4234,9 +4236,9 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="27"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="5" t="s">
         <v>13</v>
       </c>
@@ -4272,9 +4274,9 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="26" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -4312,9 +4314,9 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="27"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="5" t="s">
         <v>16</v>
       </c>
@@ -4350,8 +4352,8 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="17"/>
-      <c r="B77" s="16" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -4392,8 +4394,8 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="5" t="s">
         <v>9</v>
       </c>
@@ -4432,9 +4434,9 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="26" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -4472,9 +4474,9 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="27"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="5" t="s">
         <v>13</v>
       </c>
@@ -4510,9 +4512,9 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="26" t="s">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -4550,9 +4552,9 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="27"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="5" t="s">
         <v>16</v>
       </c>
@@ -4588,8 +4590,8 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="17"/>
-      <c r="B83" s="16" t="s">
+      <c r="A83" s="21"/>
+      <c r="B83" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -4630,8 +4632,8 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="5" t="s">
         <v>9</v>
       </c>
@@ -4670,9 +4672,9 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="26" t="s">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -4710,9 +4712,9 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="27"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="5" t="s">
         <v>13</v>
       </c>
@@ -4748,9 +4750,9 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="26" t="s">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -4788,9 +4790,9 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="27"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="17"/>
       <c r="D88" s="5" t="s">
         <v>16</v>
       </c>
@@ -4826,8 +4828,8 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="17"/>
-      <c r="B89" s="16" t="s">
+      <c r="A89" s="21"/>
+      <c r="B89" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -4868,8 +4870,8 @@
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="5" t="s">
         <v>9</v>
       </c>
@@ -4908,9 +4910,9 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="26" t="s">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -4948,9 +4950,9 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="27"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="17"/>
       <c r="D92" s="5" t="s">
         <v>13</v>
       </c>
@@ -4986,9 +4988,9 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="26" t="s">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -5026,9 +5028,9 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="27"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="17"/>
       <c r="D94" s="5" t="s">
         <v>16</v>
       </c>
@@ -5064,8 +5066,8 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="17"/>
-      <c r="B95" s="16" t="s">
+      <c r="A95" s="21"/>
+      <c r="B95" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -5106,8 +5108,8 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="5" t="s">
         <v>9</v>
       </c>
@@ -5146,9 +5148,9 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="26" t="s">
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -5186,9 +5188,9 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="27"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="17"/>
       <c r="D98" s="5" t="s">
         <v>13</v>
       </c>
@@ -5224,9 +5226,9 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="26" t="s">
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -5264,9 +5266,9 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="27"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="5" t="s">
         <v>16</v>
       </c>
@@ -5302,8 +5304,8 @@
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="17"/>
-      <c r="B101" s="16" t="s">
+      <c r="A101" s="21"/>
+      <c r="B101" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -5344,8 +5346,8 @@
       </c>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="5" t="s">
         <v>9</v>
       </c>
@@ -5384,9 +5386,9 @@
       </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="26" t="s">
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -5424,9 +5426,9 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="27"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="17"/>
       <c r="D104" s="5" t="s">
         <v>13</v>
       </c>
@@ -5462,9 +5464,9 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="26" t="s">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -5502,9 +5504,9 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="17"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="27"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="17"/>
       <c r="D106" s="5" t="s">
         <v>16</v>
       </c>
@@ -5540,8 +5542,8 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="17"/>
-      <c r="B107" s="16" t="s">
+      <c r="A107" s="21"/>
+      <c r="B107" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -5582,8 +5584,8 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="5" t="s">
         <v>9</v>
       </c>
@@ -5622,9 +5624,9 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="26" t="s">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -5662,9 +5664,9 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="27"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="17"/>
       <c r="D110" s="5" t="s">
         <v>13</v>
       </c>
@@ -5700,9 +5702,9 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="26" t="s">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -5740,9 +5742,9 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="27"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="17"/>
       <c r="D112" s="5" t="s">
         <v>16</v>
       </c>
@@ -5778,10 +5780,10 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C113" s="7" t="s">
@@ -5822,8 +5824,8 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="7" t="s">
         <v>9</v>
       </c>
@@ -5862,9 +5864,9 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="24" t="s">
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="7" t="s">
@@ -5902,9 +5904,9 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="25"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="7" t="s">
         <v>13</v>
       </c>
@@ -5940,9 +5942,9 @@
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="24" t="s">
+      <c r="A117" s="21"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="7" t="s">
@@ -5980,9 +5982,9 @@
       </c>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="17"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="25"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="19"/>
       <c r="D118" s="7" t="s">
         <v>16</v>
       </c>
@@ -6018,8 +6020,8 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="17"/>
-      <c r="B119" s="16" t="s">
+      <c r="A119" s="21"/>
+      <c r="B119" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -6060,8 +6062,8 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="5" t="s">
         <v>9</v>
       </c>
@@ -6100,9 +6102,9 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="26" t="s">
+      <c r="A121" s="21"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -6140,9 +6142,9 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="27"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="17"/>
       <c r="D122" s="5" t="s">
         <v>13</v>
       </c>
@@ -6178,9 +6180,9 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="26" t="s">
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -6218,9 +6220,9 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="27"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="17"/>
       <c r="D124" s="5" t="s">
         <v>16</v>
       </c>
@@ -6256,8 +6258,8 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="17"/>
-      <c r="B125" s="16" t="s">
+      <c r="A125" s="21"/>
+      <c r="B125" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -6298,8 +6300,8 @@
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="5" t="s">
         <v>9</v>
       </c>
@@ -6338,9 +6340,9 @@
       </c>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="26" t="s">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -6378,9 +6380,9 @@
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="27"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="17"/>
       <c r="D128" s="5" t="s">
         <v>13</v>
       </c>
@@ -6416,9 +6418,9 @@
       </c>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="26" t="s">
+      <c r="A129" s="21"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="5" t="s">
@@ -6456,9 +6458,9 @@
       </c>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="27"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="17"/>
       <c r="D130" s="5" t="s">
         <v>16</v>
       </c>
@@ -6494,8 +6496,8 @@
       </c>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="17"/>
-      <c r="B131" s="16" t="s">
+      <c r="A131" s="21"/>
+      <c r="B131" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -6536,8 +6538,8 @@
       </c>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="5" t="s">
         <v>9</v>
       </c>
@@ -6576,9 +6578,9 @@
       </c>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="26" t="s">
+      <c r="A133" s="21"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -6616,9 +6618,9 @@
       </c>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="17"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="27"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="17"/>
       <c r="D134" s="5" t="s">
         <v>13</v>
       </c>
@@ -6654,9 +6656,9 @@
       </c>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="17"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="26" t="s">
+      <c r="A135" s="21"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -6694,9 +6696,9 @@
       </c>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="27"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="17"/>
       <c r="D136" s="5" t="s">
         <v>16</v>
       </c>
@@ -6732,8 +6734,8 @@
       </c>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="17"/>
-      <c r="B137" s="16" t="s">
+      <c r="A137" s="21"/>
+      <c r="B137" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -6774,8 +6776,8 @@
       </c>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="17"/>
-      <c r="B138" s="17"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="5" t="s">
         <v>9</v>
       </c>
@@ -6814,9 +6816,9 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="26" t="s">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -6854,9 +6856,9 @@
       </c>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="17"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="27"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="17"/>
       <c r="D140" s="5" t="s">
         <v>13</v>
       </c>
@@ -6892,9 +6894,9 @@
       </c>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="26" t="s">
+      <c r="A141" s="21"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="5" t="s">
@@ -6932,9 +6934,9 @@
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" s="17"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="27"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="17"/>
       <c r="D142" s="5" t="s">
         <v>16</v>
       </c>
@@ -6970,8 +6972,8 @@
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="17"/>
-      <c r="B143" s="16" t="s">
+      <c r="A143" s="21"/>
+      <c r="B143" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -7012,8 +7014,8 @@
       </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="5" t="s">
         <v>9</v>
       </c>
@@ -7052,9 +7054,9 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="17"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="26" t="s">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="5" t="s">
@@ -7092,9 +7094,9 @@
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="17"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="27"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="17"/>
       <c r="D146" s="5" t="s">
         <v>13</v>
       </c>
@@ -7130,9 +7132,9 @@
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="17"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="26" t="s">
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="5" t="s">
@@ -7170,9 +7172,9 @@
       </c>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="17"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="27"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="17"/>
       <c r="D148" s="5" t="s">
         <v>16</v>
       </c>
@@ -7208,8 +7210,8 @@
       </c>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="17"/>
-      <c r="B149" s="16" t="s">
+      <c r="A149" s="21"/>
+      <c r="B149" s="20" t="s">
         <v>41</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -7250,8 +7252,8 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="17"/>
-      <c r="B150" s="17"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="5" t="s">
         <v>9</v>
       </c>
@@ -7290,9 +7292,9 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="26" t="s">
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="5" t="s">
@@ -7330,9 +7332,9 @@
       </c>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="27"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="17"/>
       <c r="D152" s="5" t="s">
         <v>13</v>
       </c>
@@ -7368,9 +7370,9 @@
       </c>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="26" t="s">
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -7408,9 +7410,9 @@
       </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="17"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="27"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="17"/>
       <c r="D154" s="5" t="s">
         <v>16</v>
       </c>
@@ -7446,8 +7448,8 @@
       </c>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="17"/>
-      <c r="B155" s="16" t="s">
+      <c r="A155" s="21"/>
+      <c r="B155" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -7488,8 +7490,8 @@
       </c>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="5" t="s">
         <v>9</v>
       </c>
@@ -7528,9 +7530,9 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="26" t="s">
+      <c r="A157" s="21"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -7568,9 +7570,9 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="27"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="17"/>
       <c r="D158" s="5" t="s">
         <v>13</v>
       </c>
@@ -7606,9 +7608,9 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="26" t="s">
+      <c r="A159" s="21"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="5" t="s">
@@ -7646,9 +7648,9 @@
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="17"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="27"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="17"/>
       <c r="D160" s="5" t="s">
         <v>16</v>
       </c>
@@ -7684,8 +7686,8 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="17"/>
-      <c r="B161" s="16" t="s">
+      <c r="A161" s="21"/>
+      <c r="B161" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -7726,8 +7728,8 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="5" t="s">
         <v>9</v>
       </c>
@@ -7766,9 +7768,9 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="17"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="26" t="s">
+      <c r="A163" s="21"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -7806,9 +7808,9 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="27"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="17"/>
       <c r="D164" s="5" t="s">
         <v>13</v>
       </c>
@@ -7844,9 +7846,9 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="26" t="s">
+      <c r="A165" s="21"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -7884,9 +7886,9 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="27"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="17"/>
       <c r="D166" s="5" t="s">
         <v>16</v>
       </c>
@@ -7922,8 +7924,8 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="17"/>
-      <c r="B167" s="16" t="s">
+      <c r="A167" s="21"/>
+      <c r="B167" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -7964,8 +7966,8 @@
       </c>
     </row>
     <row r="168" spans="1:14">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="5" t="s">
         <v>9</v>
       </c>
@@ -8004,9 +8006,9 @@
       </c>
     </row>
     <row r="169" spans="1:14">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="26" t="s">
+      <c r="A169" s="21"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="5" t="s">
@@ -8044,9 +8046,9 @@
       </c>
     </row>
     <row r="170" spans="1:14">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="27"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="17"/>
       <c r="D170" s="5" t="s">
         <v>13</v>
       </c>
@@ -8082,9 +8084,9 @@
       </c>
     </row>
     <row r="171" spans="1:14">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="26" t="s">
+      <c r="A171" s="21"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="5" t="s">
@@ -8122,9 +8124,9 @@
       </c>
     </row>
     <row r="172" spans="1:14">
-      <c r="A172" s="17"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="27"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="17"/>
       <c r="D172" s="5" t="s">
         <v>16</v>
       </c>
@@ -8160,8 +8162,8 @@
       </c>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="17"/>
-      <c r="B173" s="16" t="s">
+      <c r="A173" s="21"/>
+      <c r="B173" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C173" s="5" t="s">
@@ -8202,8 +8204,8 @@
       </c>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="17"/>
-      <c r="B174" s="17"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="5" t="s">
         <v>9</v>
       </c>
@@ -8242,9 +8244,9 @@
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="26" t="s">
+      <c r="A175" s="21"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="5" t="s">
@@ -8282,9 +8284,9 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="27"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="17"/>
       <c r="D176" s="5" t="s">
         <v>13</v>
       </c>
@@ -8320,9 +8322,9 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="17"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="26" t="s">
+      <c r="A177" s="21"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -8360,9 +8362,9 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="17"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="27"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="17"/>
       <c r="D178" s="5" t="s">
         <v>16</v>
       </c>
@@ -8398,8 +8400,8 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="17"/>
-      <c r="B179" s="16" t="s">
+      <c r="A179" s="21"/>
+      <c r="B179" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -8440,8 +8442,8 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="17"/>
-      <c r="B180" s="17"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="5" t="s">
         <v>9</v>
       </c>
@@ -8480,9 +8482,9 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="17"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="26" t="s">
+      <c r="A181" s="21"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="5" t="s">
@@ -8520,9 +8522,9 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="17"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="27"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="17"/>
       <c r="D182" s="5" t="s">
         <v>13</v>
       </c>
@@ -8558,9 +8560,9 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="17"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="26" t="s">
+      <c r="A183" s="21"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D183" s="5" t="s">
@@ -8598,9 +8600,9 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="17"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="27"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="17"/>
       <c r="D184" s="5" t="s">
         <v>16</v>
       </c>
@@ -8636,8 +8638,8 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="17"/>
-      <c r="B185" s="16" t="s">
+      <c r="A185" s="21"/>
+      <c r="B185" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C185" s="5" t="s">
@@ -8678,8 +8680,8 @@
       </c>
     </row>
     <row r="186" spans="1:14">
-      <c r="A186" s="17"/>
-      <c r="B186" s="17"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="5" t="s">
         <v>9</v>
       </c>
@@ -8718,9 +8720,9 @@
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" s="17"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="26" t="s">
+      <c r="A187" s="21"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="5" t="s">
@@ -8758,9 +8760,9 @@
       </c>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" s="17"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="27"/>
+      <c r="A188" s="21"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="17"/>
       <c r="D188" s="5" t="s">
         <v>13</v>
       </c>
@@ -8796,9 +8798,9 @@
       </c>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="17"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="26" t="s">
+      <c r="A189" s="21"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D189" s="5" t="s">
@@ -8836,9 +8838,9 @@
       </c>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" s="17"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="27"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="17"/>
       <c r="D190" s="5" t="s">
         <v>16</v>
       </c>
@@ -8874,8 +8876,8 @@
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" s="17"/>
-      <c r="B191" s="16" t="s">
+      <c r="A191" s="21"/>
+      <c r="B191" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C191" s="5" t="s">
@@ -8916,8 +8918,8 @@
       </c>
     </row>
     <row r="192" spans="1:14">
-      <c r="A192" s="17"/>
-      <c r="B192" s="17"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="5" t="s">
         <v>9</v>
       </c>
@@ -8956,9 +8958,9 @@
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="17"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="26" t="s">
+      <c r="A193" s="21"/>
+      <c r="B193" s="21"/>
+      <c r="C193" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D193" s="5" t="s">
@@ -8996,9 +8998,9 @@
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="17"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="27"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="17"/>
       <c r="D194" s="5" t="s">
         <v>13</v>
       </c>
@@ -9034,9 +9036,9 @@
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="17"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="26" t="s">
+      <c r="A195" s="21"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D195" s="5" t="s">
@@ -9074,9 +9076,9 @@
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="17"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="27"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="17"/>
       <c r="D196" s="5" t="s">
         <v>16</v>
       </c>
@@ -9112,9 +9114,9 @@
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="17"/>
-      <c r="B197" s="16" t="s">
-        <v>49</v>
+      <c r="A197" s="21"/>
+      <c r="B197" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>7</v>
@@ -9154,8 +9156,8 @@
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="17"/>
-      <c r="B198" s="17"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="5" t="s">
         <v>9</v>
       </c>
@@ -9194,9 +9196,9 @@
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="17"/>
-      <c r="B199" s="17"/>
-      <c r="C199" s="26" t="s">
+      <c r="A199" s="21"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D199" s="5" t="s">
@@ -9234,9 +9236,9 @@
       </c>
     </row>
     <row r="200" spans="1:14">
-      <c r="A200" s="17"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="27"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="17"/>
       <c r="D200" s="5" t="s">
         <v>13</v>
       </c>
@@ -9272,9 +9274,9 @@
       </c>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="17"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="26" t="s">
+      <c r="A201" s="21"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D201" s="5" t="s">
@@ -9312,9 +9314,9 @@
       </c>
     </row>
     <row r="202" spans="1:14">
-      <c r="A202" s="17"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="27"/>
+      <c r="A202" s="21"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="17"/>
       <c r="D202" s="5" t="s">
         <v>16</v>
       </c>
@@ -9350,9 +9352,9 @@
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="17"/>
-      <c r="B203" s="16" t="s">
-        <v>50</v>
+      <c r="A203" s="21"/>
+      <c r="B203" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>7</v>
@@ -9392,8 +9394,8 @@
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="17"/>
-      <c r="B204" s="17"/>
+      <c r="A204" s="21"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="5" t="s">
         <v>9</v>
       </c>
@@ -9432,9 +9434,9 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="17"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="26" t="s">
+      <c r="A205" s="21"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D205" s="5" t="s">
@@ -9472,9 +9474,9 @@
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="17"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="27"/>
+      <c r="A206" s="21"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="17"/>
       <c r="D206" s="5" t="s">
         <v>13</v>
       </c>
@@ -9510,9 +9512,9 @@
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="17"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="26" t="s">
+      <c r="A207" s="21"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D207" s="5" t="s">
@@ -9550,9 +9552,9 @@
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="17"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="27"/>
+      <c r="A208" s="21"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="17"/>
       <c r="D208" s="5" t="s">
         <v>16</v>
       </c>
@@ -9588,8 +9590,8 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="17"/>
-      <c r="B209" s="16" t="s">
+      <c r="A209" s="21"/>
+      <c r="B209" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C209" s="5" t="s">
@@ -9630,8 +9632,8 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="17"/>
-      <c r="B210" s="17"/>
+      <c r="A210" s="21"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="5" t="s">
         <v>9</v>
       </c>
@@ -9670,9 +9672,9 @@
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="17"/>
-      <c r="B211" s="17"/>
-      <c r="C211" s="26" t="s">
+      <c r="A211" s="21"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D211" s="5" t="s">
@@ -9710,9 +9712,9 @@
       </c>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="17"/>
-      <c r="B212" s="17"/>
-      <c r="C212" s="27"/>
+      <c r="A212" s="21"/>
+      <c r="B212" s="21"/>
+      <c r="C212" s="17"/>
       <c r="D212" s="5" t="s">
         <v>13</v>
       </c>
@@ -9748,9 +9750,9 @@
       </c>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="17"/>
-      <c r="B213" s="17"/>
-      <c r="C213" s="26" t="s">
+      <c r="A213" s="21"/>
+      <c r="B213" s="21"/>
+      <c r="C213" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="5" t="s">
@@ -9788,9 +9790,9 @@
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="18"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="27"/>
+      <c r="A214" s="22"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="17"/>
       <c r="D214" s="5" t="s">
         <v>16</v>
       </c>
@@ -9826,11 +9828,11 @@
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="16" t="s">
+      <c r="A215" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B215" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>7</v>
@@ -9870,8 +9872,8 @@
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="17"/>
-      <c r="B216" s="17"/>
+      <c r="A216" s="21"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="7" t="s">
         <v>9</v>
       </c>
@@ -9910,9 +9912,9 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="17"/>
-      <c r="B217" s="17"/>
-      <c r="C217" s="24" t="s">
+      <c r="A217" s="21"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D217" s="7" t="s">
@@ -9950,9 +9952,9 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="17"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="25"/>
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="19"/>
       <c r="D218" s="7" t="s">
         <v>13</v>
       </c>
@@ -9988,9 +9990,9 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="17"/>
-      <c r="B219" s="17"/>
-      <c r="C219" s="24" t="s">
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D219" s="7" t="s">
@@ -10028,9 +10030,9 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="17"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="25"/>
+      <c r="A220" s="21"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="19"/>
       <c r="D220" s="7" t="s">
         <v>16</v>
       </c>
@@ -10066,9 +10068,9 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="17"/>
-      <c r="B221" s="16" t="s">
-        <v>53</v>
+      <c r="A221" s="21"/>
+      <c r="B221" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>7</v>
@@ -10108,8 +10110,8 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="17"/>
-      <c r="B222" s="17"/>
+      <c r="A222" s="21"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="5" t="s">
         <v>9</v>
       </c>
@@ -10148,9 +10150,9 @@
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="17"/>
-      <c r="B223" s="17"/>
-      <c r="C223" s="26" t="s">
+      <c r="A223" s="21"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D223" s="5" t="s">
@@ -10188,9 +10190,9 @@
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="17"/>
-      <c r="B224" s="17"/>
-      <c r="C224" s="27"/>
+      <c r="A224" s="21"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="17"/>
       <c r="D224" s="5" t="s">
         <v>13</v>
       </c>
@@ -10226,9 +10228,9 @@
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="17"/>
-      <c r="B225" s="17"/>
-      <c r="C225" s="26" t="s">
+      <c r="A225" s="21"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D225" s="5" t="s">
@@ -10266,9 +10268,9 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="17"/>
-      <c r="B226" s="18"/>
-      <c r="C226" s="27"/>
+      <c r="A226" s="21"/>
+      <c r="B226" s="22"/>
+      <c r="C226" s="17"/>
       <c r="D226" s="5" t="s">
         <v>16</v>
       </c>
@@ -10304,9 +10306,9 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="17"/>
-      <c r="B227" s="16" t="s">
-        <v>54</v>
+      <c r="A227" s="21"/>
+      <c r="B227" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>7</v>
@@ -10346,8 +10348,8 @@
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="17"/>
-      <c r="B228" s="17"/>
+      <c r="A228" s="21"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="5" t="s">
         <v>9</v>
       </c>
@@ -10386,9 +10388,9 @@
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="17"/>
-      <c r="B229" s="17"/>
-      <c r="C229" s="26" t="s">
+      <c r="A229" s="21"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D229" s="5" t="s">
@@ -10426,9 +10428,9 @@
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="17"/>
-      <c r="B230" s="17"/>
-      <c r="C230" s="27"/>
+      <c r="A230" s="21"/>
+      <c r="B230" s="21"/>
+      <c r="C230" s="17"/>
       <c r="D230" s="5" t="s">
         <v>13</v>
       </c>
@@ -10464,9 +10466,9 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="17"/>
-      <c r="B231" s="17"/>
-      <c r="C231" s="26" t="s">
+      <c r="A231" s="21"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="5" t="s">
@@ -10504,9 +10506,9 @@
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="17"/>
-      <c r="B232" s="18"/>
-      <c r="C232" s="27"/>
+      <c r="A232" s="21"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="17"/>
       <c r="D232" s="5" t="s">
         <v>16</v>
       </c>
@@ -10542,9 +10544,9 @@
       </c>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="17"/>
-      <c r="B233" s="16" t="s">
-        <v>55</v>
+      <c r="A233" s="21"/>
+      <c r="B233" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>7</v>
@@ -10584,8 +10586,8 @@
       </c>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="17"/>
-      <c r="B234" s="17"/>
+      <c r="A234" s="21"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="5" t="s">
         <v>9</v>
       </c>
@@ -10624,9 +10626,9 @@
       </c>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="17"/>
-      <c r="B235" s="17"/>
-      <c r="C235" s="26" t="s">
+      <c r="A235" s="21"/>
+      <c r="B235" s="21"/>
+      <c r="C235" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D235" s="5" t="s">
@@ -10664,9 +10666,9 @@
       </c>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="17"/>
-      <c r="B236" s="17"/>
-      <c r="C236" s="27"/>
+      <c r="A236" s="21"/>
+      <c r="B236" s="21"/>
+      <c r="C236" s="17"/>
       <c r="D236" s="5" t="s">
         <v>13</v>
       </c>
@@ -10702,9 +10704,9 @@
       </c>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="17"/>
-      <c r="B237" s="17"/>
-      <c r="C237" s="26" t="s">
+      <c r="A237" s="21"/>
+      <c r="B237" s="21"/>
+      <c r="C237" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D237" s="5" t="s">
@@ -10742,9 +10744,9 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="17"/>
-      <c r="B238" s="18"/>
-      <c r="C238" s="27"/>
+      <c r="A238" s="21"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="17"/>
       <c r="D238" s="5" t="s">
         <v>16</v>
       </c>
@@ -10780,9 +10782,9 @@
       </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="17"/>
-      <c r="B239" s="16" t="s">
-        <v>56</v>
+      <c r="A239" s="21"/>
+      <c r="B239" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>7</v>
@@ -10822,8 +10824,8 @@
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="17"/>
-      <c r="B240" s="17"/>
+      <c r="A240" s="21"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="5" t="s">
         <v>9</v>
       </c>
@@ -10862,9 +10864,9 @@
       </c>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="17"/>
-      <c r="B241" s="17"/>
-      <c r="C241" s="26" t="s">
+      <c r="A241" s="21"/>
+      <c r="B241" s="21"/>
+      <c r="C241" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D241" s="5" t="s">
@@ -10902,9 +10904,9 @@
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="17"/>
-      <c r="B242" s="17"/>
-      <c r="C242" s="27"/>
+      <c r="A242" s="21"/>
+      <c r="B242" s="21"/>
+      <c r="C242" s="17"/>
       <c r="D242" s="5" t="s">
         <v>13</v>
       </c>
@@ -10940,9 +10942,9 @@
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="17"/>
-      <c r="B243" s="17"/>
-      <c r="C243" s="26" t="s">
+      <c r="A243" s="21"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D243" s="5" t="s">
@@ -10980,9 +10982,9 @@
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="17"/>
-      <c r="B244" s="18"/>
-      <c r="C244" s="27"/>
+      <c r="A244" s="21"/>
+      <c r="B244" s="22"/>
+      <c r="C244" s="17"/>
       <c r="D244" s="5" t="s">
         <v>16</v>
       </c>
@@ -11018,8 +11020,8 @@
       </c>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="17"/>
-      <c r="B245" s="16" t="s">
+      <c r="A245" s="21"/>
+      <c r="B245" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="5" t="s">
@@ -11060,8 +11062,8 @@
       </c>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="17"/>
-      <c r="B246" s="17"/>
+      <c r="A246" s="21"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="5" t="s">
         <v>9</v>
       </c>
@@ -11100,9 +11102,9 @@
       </c>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="17"/>
-      <c r="B247" s="17"/>
-      <c r="C247" s="26" t="s">
+      <c r="A247" s="21"/>
+      <c r="B247" s="21"/>
+      <c r="C247" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="5" t="s">
@@ -11140,9 +11142,9 @@
       </c>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="17"/>
-      <c r="B248" s="17"/>
-      <c r="C248" s="27"/>
+      <c r="A248" s="21"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="17"/>
       <c r="D248" s="5" t="s">
         <v>13</v>
       </c>
@@ -11178,9 +11180,9 @@
       </c>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="17"/>
-      <c r="B249" s="17"/>
-      <c r="C249" s="26" t="s">
+      <c r="A249" s="21"/>
+      <c r="B249" s="21"/>
+      <c r="C249" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D249" s="5" t="s">
@@ -11218,9 +11220,9 @@
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="18"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="27"/>
+      <c r="A250" s="22"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="17"/>
       <c r="D250" s="5" t="s">
         <v>16</v>
       </c>
@@ -11256,11 +11258,11 @@
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="16" t="s">
+      <c r="A251" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B251" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="B251" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>7</v>
@@ -11300,8 +11302,8 @@
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="17"/>
-      <c r="B252" s="17"/>
+      <c r="A252" s="21"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="7" t="s">
         <v>9</v>
       </c>
@@ -11340,9 +11342,9 @@
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="17"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="24" t="s">
+      <c r="A253" s="21"/>
+      <c r="B253" s="21"/>
+      <c r="C253" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D253" s="7" t="s">
@@ -11380,9 +11382,9 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="17"/>
-      <c r="B254" s="17"/>
-      <c r="C254" s="25"/>
+      <c r="A254" s="21"/>
+      <c r="B254" s="21"/>
+      <c r="C254" s="19"/>
       <c r="D254" s="7" t="s">
         <v>13</v>
       </c>
@@ -11418,9 +11420,9 @@
       </c>
     </row>
     <row r="255" spans="1:14">
-      <c r="A255" s="17"/>
-      <c r="B255" s="17"/>
-      <c r="C255" s="24" t="s">
+      <c r="A255" s="21"/>
+      <c r="B255" s="21"/>
+      <c r="C255" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D255" s="7" t="s">
@@ -11458,9 +11460,9 @@
       </c>
     </row>
     <row r="256" spans="1:14">
-      <c r="A256" s="17"/>
-      <c r="B256" s="18"/>
-      <c r="C256" s="25"/>
+      <c r="A256" s="21"/>
+      <c r="B256" s="22"/>
+      <c r="C256" s="19"/>
       <c r="D256" s="7" t="s">
         <v>16</v>
       </c>
@@ -11496,9 +11498,9 @@
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="17"/>
-      <c r="B257" s="16" t="s">
-        <v>59</v>
+      <c r="A257" s="21"/>
+      <c r="B257" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>7</v>
@@ -11538,8 +11540,8 @@
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="17"/>
-      <c r="B258" s="17"/>
+      <c r="A258" s="21"/>
+      <c r="B258" s="21"/>
       <c r="C258" s="5" t="s">
         <v>9</v>
       </c>
@@ -11578,9 +11580,9 @@
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="17"/>
-      <c r="B259" s="17"/>
-      <c r="C259" s="26" t="s">
+      <c r="A259" s="21"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D259" s="5" t="s">
@@ -11618,9 +11620,9 @@
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="17"/>
-      <c r="B260" s="17"/>
-      <c r="C260" s="27"/>
+      <c r="A260" s="21"/>
+      <c r="B260" s="21"/>
+      <c r="C260" s="17"/>
       <c r="D260" s="5" t="s">
         <v>13</v>
       </c>
@@ -11656,9 +11658,9 @@
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="17"/>
-      <c r="B261" s="17"/>
-      <c r="C261" s="26" t="s">
+      <c r="A261" s="21"/>
+      <c r="B261" s="21"/>
+      <c r="C261" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D261" s="5" t="s">
@@ -11696,9 +11698,9 @@
       </c>
     </row>
     <row r="262" spans="1:14">
-      <c r="A262" s="17"/>
-      <c r="B262" s="18"/>
-      <c r="C262" s="27"/>
+      <c r="A262" s="21"/>
+      <c r="B262" s="22"/>
+      <c r="C262" s="17"/>
       <c r="D262" s="5" t="s">
         <v>16</v>
       </c>
@@ -11734,9 +11736,9 @@
       </c>
     </row>
     <row r="263" spans="1:14">
-      <c r="A263" s="17"/>
-      <c r="B263" s="16" t="s">
-        <v>60</v>
+      <c r="A263" s="21"/>
+      <c r="B263" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>7</v>
@@ -11776,8 +11778,8 @@
       </c>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="17"/>
-      <c r="B264" s="17"/>
+      <c r="A264" s="21"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="5" t="s">
         <v>9</v>
       </c>
@@ -11816,9 +11818,9 @@
       </c>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="17"/>
-      <c r="B265" s="17"/>
-      <c r="C265" s="26" t="s">
+      <c r="A265" s="21"/>
+      <c r="B265" s="21"/>
+      <c r="C265" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D265" s="5" t="s">
@@ -11856,9 +11858,9 @@
       </c>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="17"/>
-      <c r="B266" s="17"/>
-      <c r="C266" s="27"/>
+      <c r="A266" s="21"/>
+      <c r="B266" s="21"/>
+      <c r="C266" s="17"/>
       <c r="D266" s="5" t="s">
         <v>13</v>
       </c>
@@ -11894,9 +11896,9 @@
       </c>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="17"/>
-      <c r="B267" s="17"/>
-      <c r="C267" s="26" t="s">
+      <c r="A267" s="21"/>
+      <c r="B267" s="21"/>
+      <c r="C267" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D267" s="5" t="s">
@@ -11934,9 +11936,9 @@
       </c>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="17"/>
-      <c r="B268" s="18"/>
-      <c r="C268" s="27"/>
+      <c r="A268" s="21"/>
+      <c r="B268" s="22"/>
+      <c r="C268" s="17"/>
       <c r="D268" s="5" t="s">
         <v>16</v>
       </c>
@@ -11972,9 +11974,9 @@
       </c>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="17"/>
-      <c r="B269" s="16" t="s">
-        <v>61</v>
+      <c r="A269" s="21"/>
+      <c r="B269" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>7</v>
@@ -12014,8 +12016,8 @@
       </c>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="17"/>
-      <c r="B270" s="17"/>
+      <c r="A270" s="21"/>
+      <c r="B270" s="21"/>
       <c r="C270" s="5" t="s">
         <v>9</v>
       </c>
@@ -12054,9 +12056,9 @@
       </c>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="17"/>
-      <c r="B271" s="17"/>
-      <c r="C271" s="26" t="s">
+      <c r="A271" s="21"/>
+      <c r="B271" s="21"/>
+      <c r="C271" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="5" t="s">
@@ -12094,9 +12096,9 @@
       </c>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="17"/>
-      <c r="B272" s="17"/>
-      <c r="C272" s="27"/>
+      <c r="A272" s="21"/>
+      <c r="B272" s="21"/>
+      <c r="C272" s="17"/>
       <c r="D272" s="5" t="s">
         <v>13</v>
       </c>
@@ -12132,9 +12134,9 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="17"/>
-      <c r="B273" s="17"/>
-      <c r="C273" s="26" t="s">
+      <c r="A273" s="21"/>
+      <c r="B273" s="21"/>
+      <c r="C273" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D273" s="5" t="s">
@@ -12172,9 +12174,9 @@
       </c>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="17"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="27"/>
+      <c r="A274" s="21"/>
+      <c r="B274" s="22"/>
+      <c r="C274" s="17"/>
       <c r="D274" s="5" t="s">
         <v>16</v>
       </c>
@@ -12210,9 +12212,9 @@
       </c>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="17"/>
-      <c r="B275" s="16" t="s">
-        <v>62</v>
+      <c r="A275" s="21"/>
+      <c r="B275" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>7</v>
@@ -12252,8 +12254,8 @@
       </c>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="17"/>
-      <c r="B276" s="17"/>
+      <c r="A276" s="21"/>
+      <c r="B276" s="21"/>
       <c r="C276" s="5" t="s">
         <v>9</v>
       </c>
@@ -12292,9 +12294,9 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="17"/>
-      <c r="B277" s="17"/>
-      <c r="C277" s="26" t="s">
+      <c r="A277" s="21"/>
+      <c r="B277" s="21"/>
+      <c r="C277" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D277" s="5" t="s">
@@ -12332,9 +12334,9 @@
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="17"/>
-      <c r="B278" s="17"/>
-      <c r="C278" s="27"/>
+      <c r="A278" s="21"/>
+      <c r="B278" s="21"/>
+      <c r="C278" s="17"/>
       <c r="D278" s="5" t="s">
         <v>13</v>
       </c>
@@ -12370,9 +12372,9 @@
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="17"/>
-      <c r="B279" s="17"/>
-      <c r="C279" s="26" t="s">
+      <c r="A279" s="21"/>
+      <c r="B279" s="21"/>
+      <c r="C279" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D279" s="5" t="s">
@@ -12410,9 +12412,9 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="17"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="27"/>
+      <c r="A280" s="21"/>
+      <c r="B280" s="22"/>
+      <c r="C280" s="17"/>
       <c r="D280" s="5" t="s">
         <v>16</v>
       </c>
@@ -12448,9 +12450,9 @@
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="17"/>
-      <c r="B281" s="16" t="s">
-        <v>63</v>
+      <c r="A281" s="21"/>
+      <c r="B281" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>7</v>
@@ -12490,8 +12492,8 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="17"/>
-      <c r="B282" s="17"/>
+      <c r="A282" s="21"/>
+      <c r="B282" s="21"/>
       <c r="C282" s="5" t="s">
         <v>9</v>
       </c>
@@ -12530,9 +12532,9 @@
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="17"/>
-      <c r="B283" s="17"/>
-      <c r="C283" s="26" t="s">
+      <c r="A283" s="21"/>
+      <c r="B283" s="21"/>
+      <c r="C283" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D283" s="5" t="s">
@@ -12570,9 +12572,9 @@
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="17"/>
-      <c r="B284" s="17"/>
-      <c r="C284" s="27"/>
+      <c r="A284" s="21"/>
+      <c r="B284" s="21"/>
+      <c r="C284" s="17"/>
       <c r="D284" s="5" t="s">
         <v>13</v>
       </c>
@@ -12608,9 +12610,9 @@
       </c>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="17"/>
-      <c r="B285" s="17"/>
-      <c r="C285" s="26" t="s">
+      <c r="A285" s="21"/>
+      <c r="B285" s="21"/>
+      <c r="C285" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D285" s="5" t="s">
@@ -12648,9 +12650,9 @@
       </c>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="17"/>
-      <c r="B286" s="18"/>
-      <c r="C286" s="27"/>
+      <c r="A286" s="21"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="17"/>
       <c r="D286" s="5" t="s">
         <v>16</v>
       </c>
@@ -12686,8 +12688,8 @@
       </c>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="17"/>
-      <c r="B287" s="16" t="s">
+      <c r="A287" s="21"/>
+      <c r="B287" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C287" s="5" t="s">
@@ -12728,8 +12730,8 @@
       </c>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="17"/>
-      <c r="B288" s="17"/>
+      <c r="A288" s="21"/>
+      <c r="B288" s="21"/>
       <c r="C288" s="5" t="s">
         <v>9</v>
       </c>
@@ -12768,9 +12770,9 @@
       </c>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="17"/>
-      <c r="B289" s="17"/>
-      <c r="C289" s="26" t="s">
+      <c r="A289" s="21"/>
+      <c r="B289" s="21"/>
+      <c r="C289" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D289" s="5" t="s">
@@ -12808,9 +12810,9 @@
       </c>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="17"/>
-      <c r="B290" s="17"/>
-      <c r="C290" s="27"/>
+      <c r="A290" s="21"/>
+      <c r="B290" s="21"/>
+      <c r="C290" s="17"/>
       <c r="D290" s="5" t="s">
         <v>13</v>
       </c>
@@ -12846,9 +12848,9 @@
       </c>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="17"/>
-      <c r="B291" s="17"/>
-      <c r="C291" s="26" t="s">
+      <c r="A291" s="21"/>
+      <c r="B291" s="21"/>
+      <c r="C291" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D291" s="5" t="s">
@@ -12886,9 +12888,9 @@
       </c>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="18"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="27"/>
+      <c r="A292" s="22"/>
+      <c r="B292" s="22"/>
+      <c r="C292" s="17"/>
       <c r="D292" s="5" t="s">
         <v>16</v>
       </c>
@@ -12924,11 +12926,11 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B293" s="16" t="s">
-        <v>64</v>
+      <c r="A293" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>7</v>
@@ -12968,8 +12970,8 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="17"/>
-      <c r="B294" s="17"/>
+      <c r="A294" s="21"/>
+      <c r="B294" s="21"/>
       <c r="C294" s="7" t="s">
         <v>9</v>
       </c>
@@ -13008,9 +13010,9 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="17"/>
-      <c r="B295" s="17"/>
-      <c r="C295" s="24" t="s">
+      <c r="A295" s="21"/>
+      <c r="B295" s="21"/>
+      <c r="C295" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D295" s="7" t="s">
@@ -13048,9 +13050,9 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="17"/>
-      <c r="B296" s="17"/>
-      <c r="C296" s="25"/>
+      <c r="A296" s="21"/>
+      <c r="B296" s="21"/>
+      <c r="C296" s="19"/>
       <c r="D296" s="7" t="s">
         <v>13</v>
       </c>
@@ -13086,9 +13088,9 @@
       </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="17"/>
-      <c r="B297" s="17"/>
-      <c r="C297" s="24" t="s">
+      <c r="A297" s="21"/>
+      <c r="B297" s="21"/>
+      <c r="C297" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D297" s="7" t="s">
@@ -13126,9 +13128,9 @@
       </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="17"/>
-      <c r="B298" s="18"/>
-      <c r="C298" s="25"/>
+      <c r="A298" s="21"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="19"/>
       <c r="D298" s="7" t="s">
         <v>16</v>
       </c>
@@ -13164,9 +13166,9 @@
       </c>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="17"/>
-      <c r="B299" s="16" t="s">
-        <v>65</v>
+      <c r="A299" s="21"/>
+      <c r="B299" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>7</v>
@@ -13206,8 +13208,8 @@
       </c>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="17"/>
-      <c r="B300" s="17"/>
+      <c r="A300" s="21"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="5" t="s">
         <v>9</v>
       </c>
@@ -13246,9 +13248,9 @@
       </c>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="17"/>
-      <c r="B301" s="17"/>
-      <c r="C301" s="26" t="s">
+      <c r="A301" s="21"/>
+      <c r="B301" s="21"/>
+      <c r="C301" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D301" s="5" t="s">
@@ -13286,9 +13288,9 @@
       </c>
     </row>
     <row r="302" spans="1:14">
-      <c r="A302" s="17"/>
-      <c r="B302" s="17"/>
-      <c r="C302" s="27"/>
+      <c r="A302" s="21"/>
+      <c r="B302" s="21"/>
+      <c r="C302" s="17"/>
       <c r="D302" s="5" t="s">
         <v>13</v>
       </c>
@@ -13324,9 +13326,9 @@
       </c>
     </row>
     <row r="303" spans="1:14">
-      <c r="A303" s="17"/>
-      <c r="B303" s="17"/>
-      <c r="C303" s="26" t="s">
+      <c r="A303" s="21"/>
+      <c r="B303" s="21"/>
+      <c r="C303" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D303" s="5" t="s">
@@ -13364,9 +13366,9 @@
       </c>
     </row>
     <row r="304" spans="1:14">
-      <c r="A304" s="17"/>
-      <c r="B304" s="18"/>
-      <c r="C304" s="27"/>
+      <c r="A304" s="21"/>
+      <c r="B304" s="22"/>
+      <c r="C304" s="17"/>
       <c r="D304" s="5" t="s">
         <v>16</v>
       </c>
@@ -13402,9 +13404,9 @@
       </c>
     </row>
     <row r="305" spans="1:14">
-      <c r="A305" s="17"/>
-      <c r="B305" s="16" t="s">
-        <v>66</v>
+      <c r="A305" s="21"/>
+      <c r="B305" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>7</v>
@@ -13444,8 +13446,8 @@
       </c>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="17"/>
-      <c r="B306" s="17"/>
+      <c r="A306" s="21"/>
+      <c r="B306" s="21"/>
       <c r="C306" s="5" t="s">
         <v>9</v>
       </c>
@@ -13484,9 +13486,9 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="17"/>
-      <c r="B307" s="17"/>
-      <c r="C307" s="26" t="s">
+      <c r="A307" s="21"/>
+      <c r="B307" s="21"/>
+      <c r="C307" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D307" s="5" t="s">
@@ -13524,9 +13526,9 @@
       </c>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="17"/>
-      <c r="B308" s="17"/>
-      <c r="C308" s="27"/>
+      <c r="A308" s="21"/>
+      <c r="B308" s="21"/>
+      <c r="C308" s="17"/>
       <c r="D308" s="5" t="s">
         <v>13</v>
       </c>
@@ -13562,9 +13564,9 @@
       </c>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="17"/>
-      <c r="B309" s="17"/>
-      <c r="C309" s="26" t="s">
+      <c r="A309" s="21"/>
+      <c r="B309" s="21"/>
+      <c r="C309" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D309" s="5" t="s">
@@ -13602,9 +13604,9 @@
       </c>
     </row>
     <row r="310" spans="1:14">
-      <c r="A310" s="17"/>
-      <c r="B310" s="18"/>
-      <c r="C310" s="27"/>
+      <c r="A310" s="21"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="17"/>
       <c r="D310" s="5" t="s">
         <v>16</v>
       </c>
@@ -13640,8 +13642,8 @@
       </c>
     </row>
     <row r="311" spans="1:14">
-      <c r="A311" s="17"/>
-      <c r="B311" s="16" t="s">
+      <c r="A311" s="21"/>
+      <c r="B311" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C311" s="5" t="s">
@@ -13682,8 +13684,8 @@
       </c>
     </row>
     <row r="312" spans="1:14">
-      <c r="A312" s="17"/>
-      <c r="B312" s="17"/>
+      <c r="A312" s="21"/>
+      <c r="B312" s="21"/>
       <c r="C312" s="5" t="s">
         <v>9</v>
       </c>
@@ -13722,9 +13724,9 @@
       </c>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="17"/>
-      <c r="B313" s="17"/>
-      <c r="C313" s="26" t="s">
+      <c r="A313" s="21"/>
+      <c r="B313" s="21"/>
+      <c r="C313" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D313" s="5" t="s">
@@ -13762,9 +13764,9 @@
       </c>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="17"/>
-      <c r="B314" s="17"/>
-      <c r="C314" s="27"/>
+      <c r="A314" s="21"/>
+      <c r="B314" s="21"/>
+      <c r="C314" s="17"/>
       <c r="D314" s="5" t="s">
         <v>13</v>
       </c>
@@ -13800,9 +13802,9 @@
       </c>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="17"/>
-      <c r="B315" s="17"/>
-      <c r="C315" s="26" t="s">
+      <c r="A315" s="21"/>
+      <c r="B315" s="21"/>
+      <c r="C315" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D315" s="5" t="s">
@@ -13840,9 +13842,9 @@
       </c>
     </row>
     <row r="316" spans="1:14">
-      <c r="A316" s="18"/>
-      <c r="B316" s="18"/>
-      <c r="C316" s="27"/>
+      <c r="A316" s="22"/>
+      <c r="B316" s="22"/>
+      <c r="C316" s="17"/>
       <c r="D316" s="5" t="s">
         <v>16</v>
       </c>
@@ -13878,11 +13880,11 @@
       </c>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="16" t="s">
+      <c r="A317" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B317" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="B317" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>7</v>
@@ -13922,8 +13924,8 @@
       </c>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="17"/>
-      <c r="B318" s="17"/>
+      <c r="A318" s="21"/>
+      <c r="B318" s="21"/>
       <c r="C318" s="7" t="s">
         <v>9</v>
       </c>
@@ -13962,9 +13964,9 @@
       </c>
     </row>
     <row r="319" spans="1:14">
-      <c r="A319" s="17"/>
-      <c r="B319" s="17"/>
-      <c r="C319" s="24" t="s">
+      <c r="A319" s="21"/>
+      <c r="B319" s="21"/>
+      <c r="C319" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="7" t="s">
@@ -14002,9 +14004,9 @@
       </c>
     </row>
     <row r="320" spans="1:14">
-      <c r="A320" s="17"/>
-      <c r="B320" s="17"/>
-      <c r="C320" s="25"/>
+      <c r="A320" s="21"/>
+      <c r="B320" s="21"/>
+      <c r="C320" s="19"/>
       <c r="D320" s="7" t="s">
         <v>13</v>
       </c>
@@ -14040,9 +14042,9 @@
       </c>
     </row>
     <row r="321" spans="1:14">
-      <c r="A321" s="17"/>
-      <c r="B321" s="17"/>
-      <c r="C321" s="24" t="s">
+      <c r="A321" s="21"/>
+      <c r="B321" s="21"/>
+      <c r="C321" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D321" s="7" t="s">
@@ -14080,9 +14082,9 @@
       </c>
     </row>
     <row r="322" spans="1:14">
-      <c r="A322" s="17"/>
-      <c r="B322" s="18"/>
-      <c r="C322" s="25"/>
+      <c r="A322" s="21"/>
+      <c r="B322" s="22"/>
+      <c r="C322" s="19"/>
       <c r="D322" s="7" t="s">
         <v>16</v>
       </c>
@@ -14118,9 +14120,9 @@
       </c>
     </row>
     <row r="323" spans="1:14">
-      <c r="A323" s="17"/>
-      <c r="B323" s="16" t="s">
-        <v>69</v>
+      <c r="A323" s="21"/>
+      <c r="B323" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>7</v>
@@ -14160,8 +14162,8 @@
       </c>
     </row>
     <row r="324" spans="1:14">
-      <c r="A324" s="17"/>
-      <c r="B324" s="17"/>
+      <c r="A324" s="21"/>
+      <c r="B324" s="21"/>
       <c r="C324" s="5" t="s">
         <v>9</v>
       </c>
@@ -14200,9 +14202,9 @@
       </c>
     </row>
     <row r="325" spans="1:14">
-      <c r="A325" s="17"/>
-      <c r="B325" s="17"/>
-      <c r="C325" s="26" t="s">
+      <c r="A325" s="21"/>
+      <c r="B325" s="21"/>
+      <c r="C325" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D325" s="5" t="s">
@@ -14240,9 +14242,9 @@
       </c>
     </row>
     <row r="326" spans="1:14">
-      <c r="A326" s="17"/>
-      <c r="B326" s="17"/>
-      <c r="C326" s="27"/>
+      <c r="A326" s="21"/>
+      <c r="B326" s="21"/>
+      <c r="C326" s="17"/>
       <c r="D326" s="5" t="s">
         <v>13</v>
       </c>
@@ -14278,9 +14280,9 @@
       </c>
     </row>
     <row r="327" spans="1:14">
-      <c r="A327" s="17"/>
-      <c r="B327" s="17"/>
-      <c r="C327" s="26" t="s">
+      <c r="A327" s="21"/>
+      <c r="B327" s="21"/>
+      <c r="C327" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D327" s="5" t="s">
@@ -14318,9 +14320,9 @@
       </c>
     </row>
     <row r="328" spans="1:14">
-      <c r="A328" s="17"/>
-      <c r="B328" s="18"/>
-      <c r="C328" s="27"/>
+      <c r="A328" s="21"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="17"/>
       <c r="D328" s="5" t="s">
         <v>16</v>
       </c>
@@ -14356,9 +14358,9 @@
       </c>
     </row>
     <row r="329" spans="1:14">
-      <c r="A329" s="17"/>
-      <c r="B329" s="16" t="s">
-        <v>70</v>
+      <c r="A329" s="21"/>
+      <c r="B329" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>7</v>
@@ -14398,8 +14400,8 @@
       </c>
     </row>
     <row r="330" spans="1:14">
-      <c r="A330" s="17"/>
-      <c r="B330" s="17"/>
+      <c r="A330" s="21"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="5" t="s">
         <v>9</v>
       </c>
@@ -14438,9 +14440,9 @@
       </c>
     </row>
     <row r="331" spans="1:14">
-      <c r="A331" s="17"/>
-      <c r="B331" s="17"/>
-      <c r="C331" s="26" t="s">
+      <c r="A331" s="21"/>
+      <c r="B331" s="21"/>
+      <c r="C331" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="5" t="s">
@@ -14478,9 +14480,9 @@
       </c>
     </row>
     <row r="332" spans="1:14">
-      <c r="A332" s="17"/>
-      <c r="B332" s="17"/>
-      <c r="C332" s="27"/>
+      <c r="A332" s="21"/>
+      <c r="B332" s="21"/>
+      <c r="C332" s="17"/>
       <c r="D332" s="5" t="s">
         <v>13</v>
       </c>
@@ -14516,9 +14518,9 @@
       </c>
     </row>
     <row r="333" spans="1:14">
-      <c r="A333" s="17"/>
-      <c r="B333" s="17"/>
-      <c r="C333" s="26" t="s">
+      <c r="A333" s="21"/>
+      <c r="B333" s="21"/>
+      <c r="C333" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D333" s="5" t="s">
@@ -14556,9 +14558,9 @@
       </c>
     </row>
     <row r="334" spans="1:14">
-      <c r="A334" s="17"/>
-      <c r="B334" s="18"/>
-      <c r="C334" s="27"/>
+      <c r="A334" s="21"/>
+      <c r="B334" s="22"/>
+      <c r="C334" s="17"/>
       <c r="D334" s="5" t="s">
         <v>16</v>
       </c>
@@ -14594,9 +14596,9 @@
       </c>
     </row>
     <row r="335" spans="1:14">
-      <c r="A335" s="17"/>
-      <c r="B335" s="16" t="s">
-        <v>71</v>
+      <c r="A335" s="21"/>
+      <c r="B335" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>7</v>
@@ -14636,8 +14638,8 @@
       </c>
     </row>
     <row r="336" spans="1:14">
-      <c r="A336" s="17"/>
-      <c r="B336" s="17"/>
+      <c r="A336" s="21"/>
+      <c r="B336" s="21"/>
       <c r="C336" s="5" t="s">
         <v>9</v>
       </c>
@@ -14676,9 +14678,9 @@
       </c>
     </row>
     <row r="337" spans="1:14">
-      <c r="A337" s="17"/>
-      <c r="B337" s="17"/>
-      <c r="C337" s="26" t="s">
+      <c r="A337" s="21"/>
+      <c r="B337" s="21"/>
+      <c r="C337" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="5" t="s">
@@ -14716,9 +14718,9 @@
       </c>
     </row>
     <row r="338" spans="1:14">
-      <c r="A338" s="17"/>
-      <c r="B338" s="17"/>
-      <c r="C338" s="27"/>
+      <c r="A338" s="21"/>
+      <c r="B338" s="21"/>
+      <c r="C338" s="17"/>
       <c r="D338" s="5" t="s">
         <v>13</v>
       </c>
@@ -14754,9 +14756,9 @@
       </c>
     </row>
     <row r="339" spans="1:14">
-      <c r="A339" s="17"/>
-      <c r="B339" s="17"/>
-      <c r="C339" s="26" t="s">
+      <c r="A339" s="21"/>
+      <c r="B339" s="21"/>
+      <c r="C339" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D339" s="5" t="s">
@@ -14794,9 +14796,9 @@
       </c>
     </row>
     <row r="340" spans="1:14">
-      <c r="A340" s="17"/>
-      <c r="B340" s="18"/>
-      <c r="C340" s="27"/>
+      <c r="A340" s="21"/>
+      <c r="B340" s="22"/>
+      <c r="C340" s="17"/>
       <c r="D340" s="5" t="s">
         <v>16</v>
       </c>
@@ -14832,9 +14834,9 @@
       </c>
     </row>
     <row r="341" spans="1:14">
-      <c r="A341" s="17"/>
-      <c r="B341" s="16" t="s">
-        <v>72</v>
+      <c r="A341" s="21"/>
+      <c r="B341" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>7</v>
@@ -14874,8 +14876,8 @@
       </c>
     </row>
     <row r="342" spans="1:14">
-      <c r="A342" s="17"/>
-      <c r="B342" s="17"/>
+      <c r="A342" s="21"/>
+      <c r="B342" s="21"/>
       <c r="C342" s="5" t="s">
         <v>9</v>
       </c>
@@ -14914,9 +14916,9 @@
       </c>
     </row>
     <row r="343" spans="1:14">
-      <c r="A343" s="17"/>
-      <c r="B343" s="17"/>
-      <c r="C343" s="26" t="s">
+      <c r="A343" s="21"/>
+      <c r="B343" s="21"/>
+      <c r="C343" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D343" s="5" t="s">
@@ -14954,9 +14956,9 @@
       </c>
     </row>
     <row r="344" spans="1:14">
-      <c r="A344" s="17"/>
-      <c r="B344" s="17"/>
-      <c r="C344" s="27"/>
+      <c r="A344" s="21"/>
+      <c r="B344" s="21"/>
+      <c r="C344" s="17"/>
       <c r="D344" s="5" t="s">
         <v>13</v>
       </c>
@@ -14992,9 +14994,9 @@
       </c>
     </row>
     <row r="345" spans="1:14">
-      <c r="A345" s="17"/>
-      <c r="B345" s="17"/>
-      <c r="C345" s="26" t="s">
+      <c r="A345" s="21"/>
+      <c r="B345" s="21"/>
+      <c r="C345" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D345" s="5" t="s">
@@ -15032,9 +15034,9 @@
       </c>
     </row>
     <row r="346" spans="1:14">
-      <c r="A346" s="17"/>
-      <c r="B346" s="18"/>
-      <c r="C346" s="27"/>
+      <c r="A346" s="21"/>
+      <c r="B346" s="22"/>
+      <c r="C346" s="17"/>
       <c r="D346" s="5" t="s">
         <v>16</v>
       </c>
@@ -15070,9 +15072,9 @@
       </c>
     </row>
     <row r="347" spans="1:14">
-      <c r="A347" s="17"/>
-      <c r="B347" s="16" t="s">
-        <v>73</v>
+      <c r="A347" s="21"/>
+      <c r="B347" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>7</v>
@@ -15112,8 +15114,8 @@
       </c>
     </row>
     <row r="348" spans="1:14">
-      <c r="A348" s="17"/>
-      <c r="B348" s="17"/>
+      <c r="A348" s="21"/>
+      <c r="B348" s="21"/>
       <c r="C348" s="5" t="s">
         <v>9</v>
       </c>
@@ -15152,9 +15154,9 @@
       </c>
     </row>
     <row r="349" spans="1:14">
-      <c r="A349" s="17"/>
-      <c r="B349" s="17"/>
-      <c r="C349" s="26" t="s">
+      <c r="A349" s="21"/>
+      <c r="B349" s="21"/>
+      <c r="C349" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D349" s="5" t="s">
@@ -15192,9 +15194,9 @@
       </c>
     </row>
     <row r="350" spans="1:14">
-      <c r="A350" s="17"/>
-      <c r="B350" s="17"/>
-      <c r="C350" s="27"/>
+      <c r="A350" s="21"/>
+      <c r="B350" s="21"/>
+      <c r="C350" s="17"/>
       <c r="D350" s="5" t="s">
         <v>13</v>
       </c>
@@ -15230,9 +15232,9 @@
       </c>
     </row>
     <row r="351" spans="1:14">
-      <c r="A351" s="17"/>
-      <c r="B351" s="17"/>
-      <c r="C351" s="26" t="s">
+      <c r="A351" s="21"/>
+      <c r="B351" s="21"/>
+      <c r="C351" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D351" s="5" t="s">
@@ -15270,9 +15272,9 @@
       </c>
     </row>
     <row r="352" spans="1:14">
-      <c r="A352" s="17"/>
-      <c r="B352" s="18"/>
-      <c r="C352" s="27"/>
+      <c r="A352" s="21"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="17"/>
       <c r="D352" s="5" t="s">
         <v>16</v>
       </c>
@@ -15308,8 +15310,8 @@
       </c>
     </row>
     <row r="353" spans="1:14">
-      <c r="A353" s="17"/>
-      <c r="B353" s="16" t="s">
+      <c r="A353" s="21"/>
+      <c r="B353" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C353" s="5" t="s">
@@ -15350,8 +15352,8 @@
       </c>
     </row>
     <row r="354" spans="1:14">
-      <c r="A354" s="17"/>
-      <c r="B354" s="17"/>
+      <c r="A354" s="21"/>
+      <c r="B354" s="21"/>
       <c r="C354" s="5" t="s">
         <v>9</v>
       </c>
@@ -15390,9 +15392,9 @@
       </c>
     </row>
     <row r="355" spans="1:14">
-      <c r="A355" s="17"/>
-      <c r="B355" s="17"/>
-      <c r="C355" s="26" t="s">
+      <c r="A355" s="21"/>
+      <c r="B355" s="21"/>
+      <c r="C355" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D355" s="5" t="s">
@@ -15430,9 +15432,9 @@
       </c>
     </row>
     <row r="356" spans="1:14">
-      <c r="A356" s="17"/>
-      <c r="B356" s="17"/>
-      <c r="C356" s="27"/>
+      <c r="A356" s="21"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="17"/>
       <c r="D356" s="5" t="s">
         <v>13</v>
       </c>
@@ -15468,9 +15470,9 @@
       </c>
     </row>
     <row r="357" spans="1:14">
-      <c r="A357" s="17"/>
-      <c r="B357" s="17"/>
-      <c r="C357" s="26" t="s">
+      <c r="A357" s="21"/>
+      <c r="B357" s="21"/>
+      <c r="C357" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D357" s="5" t="s">
@@ -15508,9 +15510,9 @@
       </c>
     </row>
     <row r="358" spans="1:14">
-      <c r="A358" s="18"/>
-      <c r="B358" s="18"/>
-      <c r="C358" s="27"/>
+      <c r="A358" s="22"/>
+      <c r="B358" s="22"/>
+      <c r="C358" s="17"/>
       <c r="D358" s="5" t="s">
         <v>16</v>
       </c>
@@ -15546,11 +15548,11 @@
       </c>
     </row>
     <row r="359" spans="1:14">
-      <c r="A359" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B359" s="16" t="s">
-        <v>74</v>
+      <c r="A359" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B359" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>7</v>
@@ -15590,8 +15592,8 @@
       </c>
     </row>
     <row r="360" spans="1:14">
-      <c r="A360" s="17"/>
-      <c r="B360" s="17"/>
+      <c r="A360" s="21"/>
+      <c r="B360" s="21"/>
       <c r="C360" s="7" t="s">
         <v>9</v>
       </c>
@@ -15630,9 +15632,9 @@
       </c>
     </row>
     <row r="361" spans="1:14">
-      <c r="A361" s="17"/>
-      <c r="B361" s="17"/>
-      <c r="C361" s="24" t="s">
+      <c r="A361" s="21"/>
+      <c r="B361" s="21"/>
+      <c r="C361" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D361" s="7" t="s">
@@ -15670,9 +15672,9 @@
       </c>
     </row>
     <row r="362" spans="1:14">
-      <c r="A362" s="17"/>
-      <c r="B362" s="17"/>
-      <c r="C362" s="25"/>
+      <c r="A362" s="21"/>
+      <c r="B362" s="21"/>
+      <c r="C362" s="19"/>
       <c r="D362" s="7" t="s">
         <v>13</v>
       </c>
@@ -15708,9 +15710,9 @@
       </c>
     </row>
     <row r="363" spans="1:14">
-      <c r="A363" s="17"/>
-      <c r="B363" s="17"/>
-      <c r="C363" s="24" t="s">
+      <c r="A363" s="21"/>
+      <c r="B363" s="21"/>
+      <c r="C363" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D363" s="7" t="s">
@@ -15748,9 +15750,9 @@
       </c>
     </row>
     <row r="364" spans="1:14">
-      <c r="A364" s="17"/>
-      <c r="B364" s="18"/>
-      <c r="C364" s="25"/>
+      <c r="A364" s="21"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="19"/>
       <c r="D364" s="7" t="s">
         <v>16</v>
       </c>
@@ -15786,9 +15788,9 @@
       </c>
     </row>
     <row r="365" spans="1:14">
-      <c r="A365" s="17"/>
-      <c r="B365" s="16" t="s">
-        <v>75</v>
+      <c r="A365" s="21"/>
+      <c r="B365" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>7</v>
@@ -15828,8 +15830,8 @@
       </c>
     </row>
     <row r="366" spans="1:14">
-      <c r="A366" s="17"/>
-      <c r="B366" s="17"/>
+      <c r="A366" s="21"/>
+      <c r="B366" s="21"/>
       <c r="C366" s="5" t="s">
         <v>9</v>
       </c>
@@ -15868,9 +15870,9 @@
       </c>
     </row>
     <row r="367" spans="1:14">
-      <c r="A367" s="17"/>
-      <c r="B367" s="17"/>
-      <c r="C367" s="26" t="s">
+      <c r="A367" s="21"/>
+      <c r="B367" s="21"/>
+      <c r="C367" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D367" s="5" t="s">
@@ -15908,9 +15910,9 @@
       </c>
     </row>
     <row r="368" spans="1:14">
-      <c r="A368" s="17"/>
-      <c r="B368" s="17"/>
-      <c r="C368" s="27"/>
+      <c r="A368" s="21"/>
+      <c r="B368" s="21"/>
+      <c r="C368" s="17"/>
       <c r="D368" s="5" t="s">
         <v>13</v>
       </c>
@@ -15946,9 +15948,9 @@
       </c>
     </row>
     <row r="369" spans="1:14">
-      <c r="A369" s="17"/>
-      <c r="B369" s="17"/>
-      <c r="C369" s="26" t="s">
+      <c r="A369" s="21"/>
+      <c r="B369" s="21"/>
+      <c r="C369" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D369" s="5" t="s">
@@ -15986,9 +15988,9 @@
       </c>
     </row>
     <row r="370" spans="1:14">
-      <c r="A370" s="17"/>
-      <c r="B370" s="18"/>
-      <c r="C370" s="27"/>
+      <c r="A370" s="21"/>
+      <c r="B370" s="22"/>
+      <c r="C370" s="17"/>
       <c r="D370" s="5" t="s">
         <v>16</v>
       </c>
@@ -16024,8 +16026,8 @@
       </c>
     </row>
     <row r="371" spans="1:14">
-      <c r="A371" s="17"/>
-      <c r="B371" s="16" t="s">
+      <c r="A371" s="21"/>
+      <c r="B371" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C371" s="5" t="s">
@@ -16066,8 +16068,8 @@
       </c>
     </row>
     <row r="372" spans="1:14">
-      <c r="A372" s="17"/>
-      <c r="B372" s="17"/>
+      <c r="A372" s="21"/>
+      <c r="B372" s="21"/>
       <c r="C372" s="5" t="s">
         <v>9</v>
       </c>
@@ -16106,9 +16108,9 @@
       </c>
     </row>
     <row r="373" spans="1:14">
-      <c r="A373" s="17"/>
-      <c r="B373" s="17"/>
-      <c r="C373" s="26" t="s">
+      <c r="A373" s="21"/>
+      <c r="B373" s="21"/>
+      <c r="C373" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D373" s="5" t="s">
@@ -16146,9 +16148,9 @@
       </c>
     </row>
     <row r="374" spans="1:14">
-      <c r="A374" s="17"/>
-      <c r="B374" s="17"/>
-      <c r="C374" s="27"/>
+      <c r="A374" s="21"/>
+      <c r="B374" s="21"/>
+      <c r="C374" s="17"/>
       <c r="D374" s="5" t="s">
         <v>13</v>
       </c>
@@ -16184,9 +16186,9 @@
       </c>
     </row>
     <row r="375" spans="1:14">
-      <c r="A375" s="17"/>
-      <c r="B375" s="17"/>
-      <c r="C375" s="26" t="s">
+      <c r="A375" s="21"/>
+      <c r="B375" s="21"/>
+      <c r="C375" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D375" s="5" t="s">
@@ -16224,9 +16226,9 @@
       </c>
     </row>
     <row r="376" spans="1:14">
-      <c r="A376" s="18"/>
-      <c r="B376" s="18"/>
-      <c r="C376" s="27"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="17"/>
       <c r="D376" s="5" t="s">
         <v>16</v>
       </c>
@@ -16279,137 +16281,85 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="C369:C370"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="C345:C346"/>
-    <mergeCell ref="C349:C350"/>
-    <mergeCell ref="C351:C352"/>
-    <mergeCell ref="C355:C356"/>
-    <mergeCell ref="C357:C358"/>
-    <mergeCell ref="C331:C332"/>
-    <mergeCell ref="C333:C334"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="C339:C340"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="C315:C316"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="C321:C322"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="C327:C328"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A251:A292"/>
+    <mergeCell ref="A293:A316"/>
+    <mergeCell ref="A317:A358"/>
+    <mergeCell ref="A359:A376"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A112"/>
+    <mergeCell ref="A113:A214"/>
+    <mergeCell ref="A215:A250"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="B119:B124"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="B215:B220"/>
+    <mergeCell ref="B221:B226"/>
+    <mergeCell ref="B227:B232"/>
+    <mergeCell ref="B233:B238"/>
+    <mergeCell ref="B239:B244"/>
+    <mergeCell ref="B185:B190"/>
+    <mergeCell ref="B191:B196"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="B203:B208"/>
+    <mergeCell ref="B209:B214"/>
+    <mergeCell ref="B329:B334"/>
+    <mergeCell ref="B275:B280"/>
+    <mergeCell ref="B281:B286"/>
+    <mergeCell ref="B287:B292"/>
+    <mergeCell ref="B293:B298"/>
+    <mergeCell ref="B299:B304"/>
+    <mergeCell ref="B245:B250"/>
+    <mergeCell ref="B251:B256"/>
+    <mergeCell ref="B257:B262"/>
+    <mergeCell ref="B263:B268"/>
+    <mergeCell ref="B269:B274"/>
     <mergeCell ref="B365:B370"/>
     <mergeCell ref="B371:B376"/>
     <mergeCell ref="C7:C8"/>
@@ -16434,65 +16384,117 @@
     <mergeCell ref="B311:B316"/>
     <mergeCell ref="B317:B322"/>
     <mergeCell ref="B323:B328"/>
-    <mergeCell ref="B329:B334"/>
-    <mergeCell ref="B275:B280"/>
-    <mergeCell ref="B281:B286"/>
-    <mergeCell ref="B287:B292"/>
-    <mergeCell ref="B293:B298"/>
-    <mergeCell ref="B299:B304"/>
-    <mergeCell ref="B245:B250"/>
-    <mergeCell ref="B251:B256"/>
-    <mergeCell ref="B257:B262"/>
-    <mergeCell ref="B263:B268"/>
-    <mergeCell ref="B269:B274"/>
-    <mergeCell ref="B215:B220"/>
-    <mergeCell ref="B221:B226"/>
-    <mergeCell ref="B227:B232"/>
-    <mergeCell ref="B233:B238"/>
-    <mergeCell ref="B239:B244"/>
-    <mergeCell ref="B185:B190"/>
-    <mergeCell ref="B191:B196"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="B203:B208"/>
-    <mergeCell ref="B209:B214"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="B137:B142"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="A251:A292"/>
-    <mergeCell ref="A293:A316"/>
-    <mergeCell ref="A317:A358"/>
-    <mergeCell ref="A359:A376"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A112"/>
-    <mergeCell ref="A113:A214"/>
-    <mergeCell ref="A215:A250"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="B119:B124"/>
-    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="C331:C332"/>
+    <mergeCell ref="C333:C334"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="C339:C340"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="C315:C316"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="C321:C322"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="C327:C328"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="C369:C370"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="C345:C346"/>
+    <mergeCell ref="C349:C350"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="C357:C358"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
